--- a/SOURCE/duan2019/src/main/resources/temp/Survey.xlsx
+++ b/SOURCE/duan2019/src/main/resources/temp/Survey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DONG\STFC\qldt\SOURCE\duan2019\src\main\resources\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="109">
   <si>
     <t>TT</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>${data.positionName}</t>
+  </si>
+  <si>
+    <t>${data.positionType}</t>
   </si>
 </sst>
 </file>
@@ -354,11 +357,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="0;\-0;;@"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0;\-0;;@"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -475,11 +478,6 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -749,16 +747,16 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -847,30 +845,30 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -887,7 +885,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,10 +894,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -908,55 +906,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -964,50 +998,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1018,13 +1016,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1033,30 +1046,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,19 +1079,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2409,8 +2401,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15:T15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2442,31 +2434,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="16.5">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="16.5">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="16.5">
@@ -2475,68 +2467,68 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="18.75">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
     </row>
     <row r="6" spans="1:28" ht="15.75">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
     </row>
     <row r="7" spans="1:28" ht="6" customHeight="1">
       <c r="A7" s="4"/>
@@ -2569,91 +2561,91 @@
       <c r="AB7" s="34"/>
     </row>
     <row r="8" spans="1:28" ht="15.75">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
       <c r="Q8" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="48.75" customHeight="1">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="83" t="s">
+      <c r="C9" s="86"/>
+      <c r="D9" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83" t="s">
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83" t="s">
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83" t="s">
+      <c r="S9" s="84"/>
+      <c r="T9" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="81" t="s">
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="81" t="s">
+      <c r="X9" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="Y9" s="81" t="s">
+      <c r="Y9" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="81" t="s">
+      <c r="Z9" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="83" t="s">
+      <c r="AA9" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="AB9" s="83"/>
+      <c r="AB9" s="84"/>
     </row>
     <row r="10" spans="1:28" ht="51.75" customHeight="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="75" t="s">
         <v>81</v>
       </c>
       <c r="H10" s="14" t="s">
@@ -2701,10 +2693,10 @@
       <c r="V10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
       <c r="AA10" s="14" t="s">
         <v>37</v>
       </c>
@@ -2713,121 +2705,198 @@
       </c>
     </row>
     <row r="11" spans="1:28" s="47" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A11" s="80">
+      <c r="A11" s="77">
         <f>ROW()-ROW($A$10)</f>
         <v>1</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="74" t="s">
+      <c r="B11" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="72" t="s">
+      <c r="J11" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="K11" s="72" t="s">
+      <c r="K11" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="72" t="s">
+      <c r="M11" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="72" t="s">
+      <c r="N11" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="72" t="s">
+      <c r="O11" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="72" t="s">
+      <c r="P11" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="72" t="s">
+      <c r="Q11" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="R11" s="72" t="s">
+      <c r="R11" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="S11" s="72" t="s">
+      <c r="S11" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="T11" s="72" t="s">
+      <c r="T11" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="U11" s="72" t="s">
+      <c r="U11" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="V11" s="72" t="s">
+      <c r="V11" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="W11" s="72" t="s">
+      <c r="W11" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="X11" s="72" t="s">
+      <c r="X11" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="Y11" s="72" t="s">
+      <c r="Y11" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="Z11" s="73" t="s">
+      <c r="Z11" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="AA11" s="72" t="s">
+      <c r="AA11" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="AB11" s="72" t="s">
+      <c r="AB11" s="77" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="48" customFormat="1" ht="14.25">
-      <c r="A12" s="92" t="s">
+    <row r="12" spans="1:28" s="48" customFormat="1">
+      <c r="A12" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="122">
+        <f ca="1">SUM(D11:INDIRECT("D"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="122">
+        <f ca="1">SUM(E11:INDIRECT("E"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="122">
+        <f ca="1">SUM(F11:INDIRECT("F"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="122">
+        <f ca="1">SUM(G11:INDIRECT("G"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="122">
+        <f ca="1">SUM(H11:INDIRECT("H"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="122">
+        <f ca="1">SUM(I11:INDIRECT("I"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="122">
+        <f ca="1">SUM(J11:INDIRECT("J"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="122">
+        <f ca="1">SUM(K11:INDIRECT("K"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="122">
+        <f ca="1">SUM(L11:INDIRECT("L"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="122">
+        <f ca="1">SUM(M11:INDIRECT("M"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="122">
+        <f ca="1">SUM(N11:INDIRECT("N"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="122">
+        <f ca="1">SUM(O11:INDIRECT("O"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="122">
+        <f ca="1">SUM(P11:INDIRECT("P"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="122">
+        <f ca="1">SUM(Q11:INDIRECT("Q"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="122">
+        <f ca="1">SUM(R11:INDIRECT("R"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="122">
+        <f ca="1">SUM(S11:INDIRECT("S"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="122">
+        <f ca="1">SUM(T11:INDIRECT("T"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="122">
+        <f ca="1">SUM(U11:INDIRECT("U"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="122">
+        <f ca="1">SUM(V11:INDIRECT("V"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="122">
+        <f ca="1">SUM(W11:INDIRECT("W"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="122">
+        <f ca="1">SUM(X11:INDIRECT("X"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="122">
+        <f ca="1">SUM(Y11:INDIRECT("Y"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="122">
+        <f ca="1">SUM(Z11:INDIRECT("Z"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="122">
+        <f ca="1">SUM(AA11:INDIRECT("AA"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="122">
+        <f ca="1">SUM(AB11:INDIRECT("AB"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:28" s="48" customFormat="1" ht="14.25">
       <c r="A13" s="55"/>
@@ -2907,9 +2976,9 @@
       <c r="O15" s="57"/>
       <c r="P15" s="57"/>
       <c r="Q15" s="57"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
       <c r="U15" s="57"/>
       <c r="V15" s="57"/>
       <c r="W15" s="57"/>
@@ -2926,9 +2995,9 @@
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
       <c r="J16" s="54"/>
       <c r="K16" s="54"/>
       <c r="L16" s="54"/>
@@ -2955,9 +3024,9 @@
       <c r="C17" s="25"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
       <c r="J17" s="50"/>
       <c r="K17" s="50"/>
       <c r="N17" s="51"/>
@@ -2998,18 +3067,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A5:AB5"/>
     <mergeCell ref="A6:AB6"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="D9:G9"/>
@@ -3021,6 +3078,18 @@
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:V9"/>
     <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A5:AB5"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.28740157500000002" right="0.143700787" top="0.393700787" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
@@ -3066,31 +3135,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1">
@@ -3099,162 +3168,162 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:30" ht="23.25" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
     </row>
     <row r="6" spans="1:30" customFormat="1" ht="15.75">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
     </row>
     <row r="7" spans="1:30" ht="15.75">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
       <c r="Q7" s="21" t="s">
         <v>16</v>
       </c>
       <c r="R7" s="21"/>
     </row>
     <row r="8" spans="1:30" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="83" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83" t="s">
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83" t="s">
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="101" t="s">
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="83" t="s">
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="97"/>
+      <c r="V8" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="W8" s="83"/>
-      <c r="X8" s="81" t="s">
+      <c r="W8" s="84"/>
+      <c r="X8" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="Y8" s="81" t="s">
+      <c r="Y8" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="Z8" s="81" t="s">
+      <c r="Z8" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="AA8" s="81" t="s">
+      <c r="AA8" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AB8" s="81" t="s">
+      <c r="AB8" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="AC8" s="83" t="s">
+      <c r="AC8" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="AD8" s="83"/>
+      <c r="AD8" s="84"/>
     </row>
     <row r="9" spans="1:30" s="15" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A9" s="83"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="96"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="76" t="s">
         <v>81</v>
       </c>
       <c r="H9" s="14" t="s">
@@ -3305,11 +3374,11 @@
       <c r="W9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="X9" s="82"/>
-      <c r="Y9" s="82"/>
-      <c r="Z9" s="82"/>
-      <c r="AA9" s="82"/>
-      <c r="AB9" s="82"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
       <c r="AC9" s="14" t="s">
         <v>37</v>
       </c>
@@ -3444,7 +3513,7 @@
       </c>
     </row>
     <row r="12" spans="1:30" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="83">
+      <c r="A12" s="84">
         <v>2</v>
       </c>
       <c r="B12" s="99" t="s">
@@ -3510,7 +3579,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="83"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="99"/>
       <c r="C13" s="13" t="s">
         <v>41</v>
@@ -3582,7 +3651,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="83"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="99"/>
       <c r="C14" s="13" t="s">
         <v>42</v>
@@ -3654,7 +3723,7 @@
       </c>
     </row>
     <row r="15" spans="1:30" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="83"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="99"/>
       <c r="C15" s="13" t="s">
         <v>43</v>
@@ -3718,7 +3787,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="83">
+      <c r="A16" s="84">
         <v>3</v>
       </c>
       <c r="B16" s="99" t="s">
@@ -3784,7 +3853,7 @@
       </c>
     </row>
     <row r="17" spans="1:31" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="83"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="99"/>
       <c r="C17" s="13" t="s">
         <v>41</v>
@@ -3856,7 +3925,7 @@
       </c>
     </row>
     <row r="18" spans="1:31" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="83"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="99"/>
       <c r="C18" s="13" t="s">
         <v>42</v>
@@ -3928,7 +3997,7 @@
       </c>
     </row>
     <row r="19" spans="1:31" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="83"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="99"/>
       <c r="C19" s="13" t="s">
         <v>43</v>
@@ -4192,11 +4261,11 @@
       <c r="Q23" s="54"/>
       <c r="R23" s="54"/>
       <c r="S23" s="54"/>
-      <c r="T23" s="97">
+      <c r="T23" s="101">
         <v>3680</v>
       </c>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
       <c r="W23" s="54"/>
       <c r="X23" s="54"/>
       <c r="Y23" s="54"/>
@@ -4215,9 +4284,9 @@
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
       <c r="J24" s="54"/>
       <c r="K24" s="54"/>
       <c r="L24" s="54"/>
@@ -4239,7 +4308,7 @@
       <c r="AB24" s="54"/>
       <c r="AC24" s="54"/>
       <c r="AD24" s="54"/>
-      <c r="AE24" s="76">
+      <c r="AE24" s="73">
         <f>G24</f>
         <v>0</v>
       </c>
@@ -4252,9 +4321,9 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="50"/>
       <c r="K25" s="50"/>
       <c r="N25" s="51"/>
@@ -4274,7 +4343,7 @@
       <c r="AB25" s="51"/>
       <c r="AC25" s="51"/>
       <c r="AD25" s="51"/>
-      <c r="AE25" s="77">
+      <c r="AE25" s="74">
         <f>G25</f>
         <v>0</v>
       </c>
@@ -4314,17 +4383,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A6:AB6"/>
-    <mergeCell ref="A5:AD5"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="D8:G8"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="L8:Q8"/>
@@ -4334,16 +4399,20 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A6:AB6"/>
+    <mergeCell ref="A5:AD5"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="X8:X9"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AB8:AB9"/>
     <mergeCell ref="B8:C9"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="V8:W8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.39370078740157499" top="0.19685039400000001" bottom="0.196850393700787" header="0.31496062992126" footer="0.31496062992126"/>
@@ -4392,43 +4461,43 @@
       <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:30" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:30" s="5" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -4449,26 +4518,26 @@
       <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:30" s="5" customFormat="1" ht="18.75">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
@@ -4480,26 +4549,26 @@
       <c r="AA5" s="30"/>
     </row>
     <row r="6" spans="1:30" customFormat="1" ht="15.75">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
       <c r="S6" s="31"/>
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
@@ -4545,36 +4614,36 @@
       <c r="AA7" s="31"/>
     </row>
     <row r="8" spans="1:30" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="110" t="s">
+      <c r="C8" s="119"/>
+      <c r="D8" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110" t="s">
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="121" t="s">
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="109" t="s">
+      <c r="Q8" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="109"/>
+      <c r="R8" s="103"/>
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
@@ -4586,9 +4655,9 @@
       <c r="AA8" s="31"/>
     </row>
     <row r="9" spans="1:30" ht="78.75" customHeight="1">
-      <c r="A9" s="108"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="38" t="s">
         <v>54</v>
       </c>
@@ -4625,7 +4694,7 @@
       <c r="O9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="122"/>
+      <c r="P9" s="105"/>
       <c r="Q9" s="39" t="s">
         <v>37</v>
       </c>
@@ -4634,7 +4703,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="39" customHeight="1">
-      <c r="A10" s="104">
+      <c r="A10" s="109">
         <v>1</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -4667,8 +4736,8 @@
       <c r="R10" s="43"/>
     </row>
     <row r="11" spans="1:30" ht="27.75" customHeight="1">
-      <c r="A11" s="108"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="107"/>
       <c r="C11" s="26" t="s">
         <v>50</v>
       </c>
@@ -4713,8 +4782,8 @@
       </c>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="107"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="26" t="s">
         <v>15</v>
       </c>
@@ -4761,7 +4830,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1">
-      <c r="A13" s="104">
+      <c r="A13" s="109">
         <v>2</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -4811,8 +4880,8 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="27.75" customHeight="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="107"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="26" t="s">
         <v>52</v>
       </c>
@@ -4858,10 +4927,10 @@
       <c r="A15" s="27">
         <v>3</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="115"/>
+      <c r="C15" s="117"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
@@ -4903,10 +4972,10 @@
       <c r="A16" s="27">
         <v>4</v>
       </c>
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="115"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
@@ -4928,10 +4997,10 @@
     </row>
     <row r="17" spans="1:30" s="32" customFormat="1" ht="20.25" customHeight="1">
       <c r="A17" s="27"/>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="109"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="44">
         <f>SUM(D10:D16)</f>
         <v>33</v>
@@ -5057,11 +5126,11 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="112">
+      <c r="J20" s="113">
         <f>+E21+E22</f>
         <v>2550</v>
       </c>
-      <c r="K20" s="113"/>
+      <c r="K20" s="114"/>
       <c r="L20" s="54"/>
       <c r="M20" s="54"/>
       <c r="N20" s="54"/>
@@ -5077,9 +5146,9 @@
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
       <c r="J21" s="54"/>
@@ -5109,11 +5178,11 @@
         <v>66</v>
       </c>
       <c r="D22" s="22"/>
-      <c r="E22" s="111">
+      <c r="E22" s="112">
         <v>2550</v>
       </c>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
       <c r="H22" s="25"/>
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
@@ -5158,28 +5227,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:P3"/>
-    <mergeCell ref="A6:R6"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A5:R5"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="B10:B12"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="A6:R6"/>
+    <mergeCell ref="A5:R5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157499" right="0.196850393700787" top="0.393700787" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
